--- a/WorkingPath.xlsx
+++ b/WorkingPath.xlsx
@@ -4,26 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>PJSOC Bashneft</t>
   </si>
@@ -31,7 +24,103 @@
     <t>SPB Ltd.</t>
   </si>
   <si>
-    <t>GC Aspec</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>DLP System</t>
+  </si>
+  <si>
+    <t>vendor</t>
+  </si>
+  <si>
+    <t>Zecurion</t>
+  </si>
+  <si>
+    <t>Video conferencing system</t>
+  </si>
+  <si>
+    <t>Polycom &amp; Microsoft</t>
+  </si>
+  <si>
+    <t>Document automation system</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Consolidations Active Directory services</t>
+  </si>
+  <si>
+    <t>VMware</t>
+  </si>
+  <si>
+    <t>ITIL</t>
+  </si>
+  <si>
+    <t>ITSM</t>
+  </si>
+  <si>
+    <t>Polycom</t>
+  </si>
+  <si>
+    <t>Microsoft servers &amp; services</t>
+  </si>
+  <si>
+    <t>Information security</t>
+  </si>
+  <si>
+    <t>Project management</t>
+  </si>
+  <si>
+    <t>Aspec Group Company</t>
+  </si>
+  <si>
+    <t>1C</t>
+  </si>
+  <si>
+    <t>IT infrastructure</t>
+  </si>
+  <si>
+    <t>CRM system</t>
+  </si>
+  <si>
+    <t>Video surveillance</t>
+  </si>
+  <si>
+    <t>Access control systems</t>
+  </si>
+  <si>
+    <t>keySkills</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Freelance</t>
+  </si>
+  <si>
+    <t>BOSS-Referent</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>experience</t>
   </si>
 </sst>
 </file>
@@ -39,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-419]mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -72,7 +161,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -377,144 +466,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
+        <v>39417</v>
+      </c>
+      <c r="C2" s="1">
+        <v>39660</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>39417</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39660</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="1">
+        <v>39661</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40524</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40544</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>39661</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40524</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>40544</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="B5" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkingPath.xlsx
+++ b/WorkingPath.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>PJSOC Bashneft</t>
   </si>
@@ -57,9 +58,6 @@
     <t>Microsoft</t>
   </si>
   <si>
-    <t>Consolidations Active Directory services</t>
-  </si>
-  <si>
     <t>VMware</t>
   </si>
   <si>
@@ -121,6 +119,87 @@
   </si>
   <si>
     <t>experience</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Shiny</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Business Analytics</t>
+  </si>
+  <si>
+    <t>Database management</t>
+  </si>
+  <si>
+    <t>Data management</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Marketing analytics</t>
+  </si>
+  <si>
+    <t>PoC</t>
+  </si>
+  <si>
+    <t>Consolidation Active Directory services</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>ITIL-2011.Operational Support and Analysis</t>
+  </si>
+  <si>
+    <t>ITIL-2011.Release Control and Validation</t>
+  </si>
+  <si>
+    <t>VMware vSphere: Optimize and Scale [V5.1]</t>
+  </si>
+  <si>
+    <t>VMware vSphere: Troubleshooting Workshop [V5.5]</t>
+  </si>
+  <si>
+    <t>VMware vSphere: Install, Configure, Manage [V5.0]</t>
+  </si>
+  <si>
+    <t>https://mylearn.vmware.com/lcms/mL_certificate/3/certificate.cfm?id_course=117528&amp;id=7305773&amp;u=0&amp;foo={ts%20%272018-05-20%2007:55:26%27}&amp;UUID=EC77FD58-A194-9193-1783EF5F3FCA199E</t>
+  </si>
+  <si>
+    <t>https://mylearn.vmware.com/lcms/mL_certificate/3/certificate.cfm?id_course=158726&amp;id=10481234&amp;u=0&amp;foo={ts%20%272018-05-20%2007:55:23%27}&amp;UUID=EC778C57-E46C-94F0-6D62BABA5AE90BA7</t>
+  </si>
+  <si>
+    <t>https://mylearn.vmware.com/lcms/mL_certificate/3/certificate.cfm?id_course=280487&amp;id=17776235&amp;u=0&amp;foo={ts%20%272018-05-20%2007:55:21%27}&amp;UUID=EC772842-F23C-7C33-84052B0C829E2D62</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>http://www.bashneft.ru</t>
+  </si>
+  <si>
+    <t>http://aspec.ru</t>
+  </si>
+  <si>
+    <t>Bachelor - Applied Mathematics</t>
+  </si>
+  <si>
+    <t>Specialist - Mathematics</t>
   </si>
 </sst>
 </file>
@@ -130,10 +209,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,14 +243,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,9 +557,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -476,27 +567,31 @@
   <cols>
     <col min="2" max="3" width="13.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -521,10 +616,13 @@
         <v>40524</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -537,8 +635,11 @@
       <c r="D4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,50 +648,50 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
@@ -627,17 +728,21 @@
       <c r="C24" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +753,7 @@
     <col min="4" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -664,8 +769,11 @@
       <c r="E1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +786,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -692,8 +803,11 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -704,21 +818,41 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -729,10 +863,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,55 +880,55 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -802,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -810,58 +944,258 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>39263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39629</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40634</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41306</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41312</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>41395</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42248</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42614</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>